--- a/RNN/Data/Optimised_Networks/Predictions/1HL Manual/1_15_30_0.0008_5 predictions offline.xlsx
+++ b/RNN/Data/Optimised_Networks/Predictions/1HL Manual/1_15_30_0.0008_5 predictions offline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN\Data\Optimised_Networks\Predictions\Good Intitial Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN\Data\Optimised_Networks\Predictions\1HL Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122C4399-0DEE-4779-9291-2B3DBA024E3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F5CD59-90AB-498B-9936-14F790B39B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6428,16 +6428,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121054</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6501,7 +6501,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>338931</xdr:colOff>
+      <xdr:colOff>301625</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>13493</xdr:rowOff>
     </xdr:from>
@@ -6509,7 +6509,7 @@
       <xdr:col>49</xdr:col>
       <xdr:colOff>586581</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>123031</xdr:rowOff>
+      <xdr:rowOff>145306</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6936,10 +6936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AF38" sqref="AF38"/>
+      <selection activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7886,7 +7886,7 @@
         <v>7.0073263212805298E-2</v>
       </c>
     </row>
-    <row r="33" spans="18:26">
+    <row r="33" spans="18:34">
       <c r="S33">
         <f t="shared" si="1"/>
         <v>0.11171417333273084</v>
@@ -7912,7 +7912,7 @@
         <v>7.460520595918789E-2</v>
       </c>
     </row>
-    <row r="34" spans="18:26">
+    <row r="34" spans="18:34">
       <c r="S34">
         <f t="shared" si="1"/>
         <v>1.2067167512324322E-2</v>
@@ -7938,7 +7938,7 @@
         <v>5.6997450384220064E-2</v>
       </c>
     </row>
-    <row r="35" spans="18:26">
+    <row r="35" spans="18:34">
       <c r="S35">
         <f t="shared" si="1"/>
         <v>1.9938141608908298E-2</v>
@@ -7964,7 +7964,7 @@
         <v>1.2882929637772903E-2</v>
       </c>
     </row>
-    <row r="36" spans="18:26">
+    <row r="36" spans="18:34">
       <c r="S36">
         <f t="shared" si="1"/>
         <v>2.0013833330906837E-3</v>
@@ -7990,7 +7990,7 @@
         <v>7.5614777432611519E-3</v>
       </c>
     </row>
-    <row r="37" spans="18:26">
+    <row r="37" spans="18:34">
       <c r="S37">
         <f t="shared" si="1"/>
         <v>1.04459642222218E-2</v>
@@ -8016,7 +8016,7 @@
         <v>5.0994108240037375E-2</v>
       </c>
     </row>
-    <row r="38" spans="18:26">
+    <row r="38" spans="18:34">
       <c r="S38">
         <f t="shared" si="1"/>
         <v>1.3276529734851515E-2</v>
@@ -8041,8 +8041,20 @@
         <f t="shared" si="0"/>
         <v>5.5481438159510794E-2</v>
       </c>
+      <c r="AF38">
+        <f>AVERAGE(S43:U43)</f>
+        <v>41.982808769859361</v>
+      </c>
+      <c r="AG38">
+        <f>AVERAGE(X43:Z43)</f>
+        <v>5.8116402585370013</v>
+      </c>
+      <c r="AH38">
+        <f>AVERAGE(AF38:AG38)</f>
+        <v>23.897224514198182</v>
+      </c>
     </row>
-    <row r="39" spans="18:26">
+    <row r="39" spans="18:34">
       <c r="S39">
         <f t="shared" si="1"/>
         <v>8.9825501277770968E-3</v>
@@ -8068,7 +8080,7 @@
         <v>1.415724718543019E-2</v>
       </c>
     </row>
-    <row r="40" spans="18:26">
+    <row r="40" spans="18:34">
       <c r="S40">
         <f t="shared" si="1"/>
         <v>1.6370526993251481E-2</v>
@@ -8094,7 +8106,7 @@
         <v>4.4248485119766201E-2</v>
       </c>
     </row>
-    <row r="41" spans="18:26">
+    <row r="41" spans="18:34">
       <c r="S41">
         <f t="shared" si="1"/>
         <v>1.194002166505952E-2</v>
@@ -8120,7 +8132,7 @@
         <v>8.5205230213966685E-2</v>
       </c>
     </row>
-    <row r="42" spans="18:26">
+    <row r="42" spans="18:34">
       <c r="S42">
         <f>ABS((J14-B14)/J14)</f>
         <v>1.5269192200247762E-2</v>
@@ -8146,7 +8158,7 @@
         <v>0.10285523315515481</v>
       </c>
     </row>
-    <row r="43" spans="18:26">
+    <row r="43" spans="18:34">
       <c r="R43" t="s">
         <v>5</v>
       </c>
